--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plg-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plg-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Plg</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,40 +540,40 @@
         <v>1.397277</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.914580333333333</v>
+        <v>3.841766333333334</v>
       </c>
       <c r="N2">
-        <v>17.743741</v>
+        <v>11.525299</v>
       </c>
       <c r="O2">
-        <v>0.07170723223214717</v>
+        <v>0.04788297632726236</v>
       </c>
       <c r="P2">
-        <v>0.07170723223214717</v>
+        <v>0.04788297632726236</v>
       </c>
       <c r="Q2">
-        <v>2.754769021473</v>
+        <v>1.789337245647</v>
       </c>
       <c r="R2">
-        <v>24.792921193257</v>
+        <v>16.104035210823</v>
       </c>
       <c r="S2">
-        <v>0.07170723223214717</v>
+        <v>0.04625896942928567</v>
       </c>
       <c r="T2">
-        <v>0.07170723223214717</v>
+        <v>0.04625896942928567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +602,10 @@
         <v>1.397277</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>134.822727</v>
       </c>
       <c r="O3">
-        <v>0.5448549206821932</v>
+        <v>0.5601341401483774</v>
       </c>
       <c r="P3">
-        <v>0.5448549206821932</v>
+        <v>0.5601341401483775</v>
       </c>
       <c r="Q3">
         <v>20.931632834931</v>
@@ -632,10 +632,10 @@
         <v>188.384695514379</v>
       </c>
       <c r="S3">
-        <v>0.5448549206821932</v>
+        <v>0.5411365385545247</v>
       </c>
       <c r="T3">
-        <v>0.5448549206821932</v>
+        <v>0.5411365385545248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>1.397277</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,214 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.626851</v>
+        <v>31.44972933333333</v>
       </c>
       <c r="N4">
-        <v>94.88055300000001</v>
+        <v>94.349188</v>
       </c>
       <c r="O4">
-        <v>0.3834378470856596</v>
+        <v>0.3919828835243602</v>
       </c>
       <c r="P4">
-        <v>0.3834378470856596</v>
+        <v>0.3919828835243602</v>
       </c>
       <c r="Q4">
-        <v>14.730490494909</v>
+        <v>14.647994484564</v>
       </c>
       <c r="R4">
-        <v>132.574414454181</v>
+        <v>131.831950361076</v>
       </c>
       <c r="S4">
-        <v>0.3834378470856596</v>
+        <v>0.3786883275973947</v>
       </c>
       <c r="T4">
-        <v>0.3834378470856596</v>
+        <v>0.3786883275973947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.049054</v>
+      </c>
+      <c r="I5">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J5">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.841766333333334</v>
+      </c>
+      <c r="N5">
+        <v>11.525299</v>
+      </c>
+      <c r="O5">
+        <v>0.04788297632726236</v>
+      </c>
+      <c r="P5">
+        <v>0.04788297632726236</v>
+      </c>
+      <c r="Q5">
+        <v>0.06281800190511111</v>
+      </c>
+      <c r="R5">
+        <v>0.565362017146</v>
+      </c>
+      <c r="S5">
+        <v>0.001624006897976692</v>
+      </c>
+      <c r="T5">
+        <v>0.001624006897976692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.049054</v>
+      </c>
+      <c r="I6">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J6">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>44.940909</v>
+      </c>
+      <c r="N6">
+        <v>134.822727</v>
+      </c>
+      <c r="O6">
+        <v>0.5601341401483774</v>
+      </c>
+      <c r="P6">
+        <v>0.5601341401483775</v>
+      </c>
+      <c r="Q6">
+        <v>0.734843783362</v>
+      </c>
+      <c r="R6">
+        <v>6.613594050258</v>
+      </c>
+      <c r="S6">
+        <v>0.01899760159385265</v>
+      </c>
+      <c r="T6">
+        <v>0.01899760159385266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.049054</v>
+      </c>
+      <c r="I7">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J7">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>31.44972933333333</v>
+      </c>
+      <c r="N7">
+        <v>94.349188</v>
+      </c>
+      <c r="O7">
+        <v>0.3919828835243602</v>
+      </c>
+      <c r="P7">
+        <v>0.3919828835243602</v>
+      </c>
+      <c r="Q7">
+        <v>0.5142450075724444</v>
+      </c>
+      <c r="R7">
+        <v>4.628205068152</v>
+      </c>
+      <c r="S7">
+        <v>0.01329455592696552</v>
+      </c>
+      <c r="T7">
+        <v>0.01329455592696552</v>
       </c>
     </row>
   </sheetData>
